--- a/Categorias_y_productos.xlsx
+++ b/Categorias_y_productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BDA4596-EAD7-48D5-99C6-0E9A134288DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E9963F-2414-493D-8EFD-725718F3C229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7432228D-64E9-4E50-B189-19167D79EA3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Categoría</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Calzado</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -470,107 +473,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BA8CCD-5F8D-4C30-B05E-FAC014945877}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>2.1</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
